--- a/code/results/测试集上ROC-AUC top-10模型的Precision-Recall曲线的Wilcoxon秩和检验p value.xlsx
+++ b/code/results/测试集上ROC-AUC top-10模型的Precision-Recall曲线的Wilcoxon秩和检验p value.xlsx
@@ -495,31 +495,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1140245032205051</v>
+        <v>2.733631324608864e-35</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7153365498661037</v>
+        <v>4.665098025570481e-40</v>
       </c>
       <c r="E2" t="n">
-        <v>3.840067350249572e-26</v>
+        <v>1.676808686329189e-44</v>
       </c>
       <c r="F2" t="n">
-        <v>1.906678388807423e-28</v>
+        <v>2.458615255685942e-34</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>1.567729039837102e-24</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02090163547951766</v>
+        <v>1.644362949798383e-09</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1140245032205051</v>
+        <v>3.457537306338173e-49</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2241139540088563</v>
+        <v>7.001454111397846e-46</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7153365498661037</v>
+        <v>1.559366764772492e-48</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1140245032205051</v>
+        <v>2.733631324608864e-35</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3947899379469284</v>
+        <v>0.2546479230224024</v>
       </c>
       <c r="E3" t="n">
-        <v>6.117625762196031e-24</v>
+        <v>0.1055953967002388</v>
       </c>
       <c r="F3" t="n">
-        <v>6.117625762196031e-24</v>
+        <v>0.2350031214214749</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003527509622248681</v>
+        <v>7.389669181931676e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005173602265772241</v>
+        <v>1.702816947877109e-19</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06822890436913169</v>
+        <v>8.731161972417823e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.2485672095464275</v>
       </c>
       <c r="K3" t="n">
-        <v>0.051767979259734</v>
+        <v>0.0001418657299816345</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7153365498661037</v>
+        <v>4.665098025570481e-40</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3947899379469284</v>
+        <v>0.2546479230224024</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007485082871102844</v>
+        <v>0.5941678406359392</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06822890436913169</v>
+        <v>0.02317845384305888</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4657589694018267</v>
+        <v>2.74025193404467e-08</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02865573421670081</v>
+        <v>6.363369478801903e-24</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5432997829879995</v>
+        <v>0.006013121702344123</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6267796178393882</v>
+        <v>0.9661939382396739</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6267796178393882</v>
+        <v>0.009321714250246232</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.840067350249572e-26</v>
+        <v>1.676808686329189e-44</v>
       </c>
       <c r="C5" t="n">
-        <v>6.117625762196031e-24</v>
+        <v>0.1055953967002388</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007485082871102844</v>
+        <v>0.5941678406359392</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02090163547951766</v>
+        <v>0.003618051924115339</v>
       </c>
       <c r="G5" t="n">
-        <v>2.343173817883275e-19</v>
+        <v>1.918533244532636e-10</v>
       </c>
       <c r="H5" t="n">
-        <v>2.244142570408632e-08</v>
+        <v>4.97680920972053e-28</v>
       </c>
       <c r="I5" t="n">
-        <v>7.929087985009408e-21</v>
+        <v>0.01975196243887825</v>
       </c>
       <c r="J5" t="n">
-        <v>2.095290711740649e-23</v>
+        <v>0.5995682082249729</v>
       </c>
       <c r="K5" t="n">
-        <v>2.490765355047797e-21</v>
+        <v>0.02424771001165956</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.906678388807423e-28</v>
+        <v>2.458615255685942e-34</v>
       </c>
       <c r="C6" t="n">
-        <v>6.117625762196031e-24</v>
+        <v>0.2350031214214749</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06822890436913169</v>
+        <v>0.02317845384305888</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02090163547951766</v>
+        <v>0.003618051924115339</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>2.352323325139947e-22</v>
+        <v>0.0006609429451078316</v>
       </c>
       <c r="H6" t="n">
-        <v>1.719625703331927e-07</v>
+        <v>1.575855485412204e-17</v>
       </c>
       <c r="I6" t="n">
-        <v>6.117625762196031e-24</v>
+        <v>3.249592032301915e-07</v>
       </c>
       <c r="J6" t="n">
-        <v>7.342471087511488e-28</v>
+        <v>0.007760858371944005</v>
       </c>
       <c r="K6" t="n">
-        <v>1.39457612533843e-25</v>
+        <v>5.498969182241846e-07</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>1.567729039837102e-24</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003527509622248681</v>
+        <v>7.389669181931676e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4657589694018267</v>
+        <v>2.74025193404467e-08</v>
       </c>
       <c r="E7" t="n">
-        <v>2.343173817883275e-19</v>
+        <v>1.918533244532636e-10</v>
       </c>
       <c r="F7" t="n">
-        <v>2.352323325139947e-22</v>
+        <v>0.0006609429451078316</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08876926235573207</v>
+        <v>1.299369844693248e-08</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001573799735340734</v>
+        <v>3.123214271565235e-17</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6267796178393882</v>
+        <v>2.362333573987422e-10</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4657589694018267</v>
+        <v>9.538758860512112e-17</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02090163547951766</v>
+        <v>1.644362949798383e-09</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005173602265772241</v>
+        <v>1.702816947877109e-19</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02865573421670081</v>
+        <v>6.363369478801903e-24</v>
       </c>
       <c r="E8" t="n">
-        <v>2.244142570408632e-08</v>
+        <v>4.97680920972053e-28</v>
       </c>
       <c r="F8" t="n">
-        <v>1.719625703331927e-07</v>
+        <v>1.575855485412204e-17</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08876926235573207</v>
+        <v>1.299369844693248e-08</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1140245032205051</v>
+        <v>5.387029533763593e-35</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007485082871102844</v>
+        <v>2.519855574730162e-29</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8079029336171661</v>
+        <v>1.538451069108397e-34</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1140245032205051</v>
+        <v>3.457537306338173e-49</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06822890436913169</v>
+        <v>8.731161972417823e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5432997829879995</v>
+        <v>0.006013121702344123</v>
       </c>
       <c r="E9" t="n">
-        <v>7.929087985009408e-21</v>
+        <v>0.01975196243887825</v>
       </c>
       <c r="F9" t="n">
-        <v>6.117625762196031e-24</v>
+        <v>3.249592032301915e-07</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001573799735340734</v>
+        <v>3.123214271565235e-17</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1140245032205051</v>
+        <v>5.387029533763593e-35</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003527509622248681</v>
+        <v>0.001814713191728692</v>
       </c>
       <c r="K9" t="n">
-        <v>2.125827460848007e-06</v>
+        <v>0.945522428430328</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2241139540088563</v>
+        <v>7.001454111397846e-46</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.2485672095464275</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6267796178393882</v>
+        <v>0.9661939382396739</v>
       </c>
       <c r="E10" t="n">
-        <v>2.095290711740649e-23</v>
+        <v>0.5995682082249729</v>
       </c>
       <c r="F10" t="n">
-        <v>7.342471087511488e-28</v>
+        <v>0.007760858371944005</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6267796178393882</v>
+        <v>2.362333573987422e-10</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007485082871102844</v>
+        <v>2.519855574730162e-29</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003527509622248681</v>
+        <v>0.001814713191728692</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01504380933153147</v>
+        <v>0.002296574029848143</v>
       </c>
     </row>
     <row r="11">
@@ -825,31 +825,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7153365498661037</v>
+        <v>1.559366764772492e-48</v>
       </c>
       <c r="C11" t="n">
-        <v>0.051767979259734</v>
+        <v>0.0001418657299816345</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6267796178393882</v>
+        <v>0.009321714250246232</v>
       </c>
       <c r="E11" t="n">
-        <v>2.490765355047797e-21</v>
+        <v>0.02424771001165956</v>
       </c>
       <c r="F11" t="n">
-        <v>1.39457612533843e-25</v>
+        <v>5.498969182241846e-07</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4657589694018267</v>
+        <v>9.538758860512112e-17</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8079029336171661</v>
+        <v>1.538451069108397e-34</v>
       </c>
       <c r="I11" t="n">
-        <v>2.125827460848007e-06</v>
+        <v>0.945522428430328</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01504380933153147</v>
+        <v>0.002296574029848143</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
